--- a/Excel/ProjectS/Datas/UnitConfig/UnitBase.xlsx
+++ b/Excel/ProjectS/Datas/UnitConfig/UnitBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="18525" windowHeight="17790"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
     <t>Darius</t>
   </si>
   <si>
-    <t>10001;10002;10003;10004;10005</t>
+    <t>10001;10002;10005</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1092,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/Excel/ProjectS/Datas/UnitConfig/UnitBase.xlsx
+++ b/Excel/ProjectS/Datas/UnitConfig/UnitBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="17790"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1092,7 +1092,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
